--- a/Tables/UNI_PERM_Density_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Density_Boxplot.xlsx
@@ -159,7 +159,7 @@
         <v>2.8245126811305874E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8348</v>
+        <v>0.8386</v>
       </c>
     </row>
     <row r="4">
@@ -182,7 +182,7 @@
         <v>0.001769841525114727</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6024</v>
+        <v>0.6113</v>
       </c>
     </row>
     <row r="5">

--- a/Tables/UNI_PERM_Density_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Density_Boxplot.xlsx
@@ -398,7 +398,7 @@
         <v>0.00381443009129582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4666</v>
+        <v>0.4593</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         <v>0.000282451268113059</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8409</v>
+        <v>0.8425</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.00176984152511473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6174</v>
+        <v>0.6083</v>
       </c>
     </row>
     <row r="5">

--- a/Tables/UNI_PERM_Density_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Density_Boxplot.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.761313018832468</v>
+        <v>0.0563737760172628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.761313018832468</v>
+        <v>0.0563737760172628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55251941142173</v>
+        <v>0.0409130078879325</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00381443009129582</v>
+        <v>0.000282451268113067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4593</v>
+        <v>0.8338</v>
       </c>
     </row>
     <row r="3">
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0563737760172611</v>
+        <v>0.761313018832472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0563737760172611</v>
+        <v>0.761313018832472</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0409130078879313</v>
+        <v>0.552519411421733</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000282451268113059</v>
+        <v>0.00381443009129584</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8425</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="4">
@@ -426,19 +426,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.353238455572905</v>
+        <v>0.353238455572906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.353238455572905</v>
+        <v>0.353238455572906</v>
       </c>
       <c r="D4" t="n">
-        <v>0.256361179615675</v>
+        <v>0.256361179615676</v>
       </c>
       <c r="E4" t="n">
         <v>0.00176984152511473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6083</v>
+        <v>0.6183</v>
       </c>
     </row>
     <row r="5">

--- a/Tables/UNI_PERM_Density_Boxplot.xlsx
+++ b/Tables/UNI_PERM_Density_Boxplot.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0563737760172628</v>
+        <v>0.01555952548175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0563737760172628</v>
+        <v>0.01555952548175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0409130078879325</v>
+        <v>0.0111352794092782</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000282451268113067</v>
+        <v>0.000076894587676767</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8338</v>
+        <v>0.9098</v>
       </c>
     </row>
     <row r="3">
@@ -406,19 +406,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.761313018832472</v>
+        <v>0.564522505049724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.761313018832472</v>
+        <v>0.564522505049724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.552519411421733</v>
+        <v>0.404004340230516</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00381443009129584</v>
+        <v>0.00278984891351403</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4595</v>
+        <v>0.5262</v>
       </c>
     </row>
     <row r="4">
@@ -426,19 +426,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.353238455572906</v>
+        <v>0.554910439568874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.353238455572906</v>
+        <v>0.554910439568874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.256361179615676</v>
+        <v>0.397125400705331</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00176984152511473</v>
+        <v>0.00274234644869022</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6183</v>
+        <v>0.5316</v>
       </c>
     </row>
     <row r="5">
@@ -446,14 +446,14 @@
         <v>144</v>
       </c>
       <c r="B5" t="n">
-        <v>198.416693505447</v>
+        <v>201.21378072517</v>
       </c>
       <c r="C5" t="n">
-        <v>1.37789370489894</v>
+        <v>1.39731792170257</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.994133277115476</v>
+        <v>0.994390910050119</v>
       </c>
       <c r="F5"/>
     </row>
@@ -462,7 +462,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="n">
-        <v>199.58761875587</v>
+        <v>202.348773195271</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
